--- a/Documentation/Fichiers personnels/Journal -des-modifs Jules DZIUBA.xlsx
+++ b/Documentation/Fichiers personnels/Journal -des-modifs Jules DZIUBA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitProject\PPO_G6_DODGE_CRUSADERS\Documentation\Fichiers personnelle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitProject\PPO_G6_DODGE_CRUSADERS\Documentation\Fichiers personnels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21046447-1FEF-40A2-8B1B-22DC2E357134}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB170B04-143F-47E7-A107-480EB79393F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B1CE73E6-F9E0-41DA-82F4-F34D615BB390}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>DUREE</t>
   </si>
@@ -49,6 +49,15 @@
   </si>
   <si>
     <t>DATE/Heure</t>
+  </si>
+  <si>
+    <t>Création de la page de menu principale + page de jeu + codage du déplacement du personnage</t>
+  </si>
+  <si>
+    <t>L'envoie du message au serveur fonctionne</t>
+  </si>
+  <si>
+    <t>3h</t>
   </si>
 </sst>
 </file>
@@ -456,7 +465,7 @@
   <dimension ref="A2:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,16 +520,28 @@
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="B6" s="5">
+        <v>43777</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="B7" s="5">
+        <v>43784</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">

--- a/Documentation/Fichiers personnels/Journal -des-modifs Jules DZIUBA.xlsx
+++ b/Documentation/Fichiers personnels/Journal -des-modifs Jules DZIUBA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitProject\PPO_G6_DODGE_CRUSADERS\Documentation\Fichiers personnels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB170B04-143F-47E7-A107-480EB79393F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D527E769-B0D1-4CF5-8887-C1949BB24D6C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B1CE73E6-F9E0-41DA-82F4-F34D615BB390}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11835" xr2:uid="{B1CE73E6-F9E0-41DA-82F4-F34D615BB390}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>DUREE</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>3h</t>
+  </si>
+  <si>
+    <t>Avoir une interface fonctionelle</t>
+  </si>
+  <si>
+    <t>2h</t>
   </si>
 </sst>
 </file>
@@ -464,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52521A71-5B34-4B84-86FF-C2E9B6CC8857}">
   <dimension ref="A2:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,9 +552,15 @@
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="B8" s="5">
+        <v>43805</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">

--- a/Documentation/Fichiers personnels/Journal -des-modifs Jules DZIUBA.xlsx
+++ b/Documentation/Fichiers personnels/Journal -des-modifs Jules DZIUBA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitProject\PPO_G6_DODGE_CRUSADERS\Documentation\Fichiers personnels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matthew.flenet\Desktop\GitHub\PPO_G6_DODGE_CRUSADERS\Documentation\Fichiers personnels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D527E769-B0D1-4CF5-8887-C1949BB24D6C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F16EED3-D836-4D76-BAAE-79B5FC2ABA3F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11835" xr2:uid="{B1CE73E6-F9E0-41DA-82F4-F34D615BB390}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{B1CE73E6-F9E0-41DA-82F4-F34D615BB390}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>DUREE</t>
   </si>
@@ -60,10 +60,25 @@
     <t>3h</t>
   </si>
   <si>
-    <t>Avoir une interface fonctionelle</t>
-  </si>
-  <si>
     <t>2h</t>
+  </si>
+  <si>
+    <t>Création de la page de fin de jeu "game over"</t>
+  </si>
+  <si>
+    <t>Ajout et correction des arrières plans des différentes fenêtres</t>
+  </si>
+  <si>
+    <t>Refonte graphique du logiciel</t>
+  </si>
+  <si>
+    <t>Les fenêtres ne sont plus redimentionnables</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>Le document de recette est crée et remplit</t>
   </si>
 </sst>
 </file>
@@ -138,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -152,6 +167,26 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -468,28 +503,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52521A71-5B34-4B84-86FF-C2E9B6CC8857}">
-  <dimension ref="A2:E37"/>
+  <dimension ref="A2:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.140625" customWidth="1"/>
     <col min="3" max="3" width="59.140625" customWidth="1"/>
     <col min="4" max="4" width="27.28515625" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -498,7 +534,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>5</v>
@@ -511,7 +547,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="5">
         <v>43756</v>
@@ -524,7 +560,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="5">
         <v>43777</v>
@@ -537,7 +573,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="5">
         <v>43784</v>
@@ -550,221 +586,248 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="5">
+        <v>43791</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5">
+        <v>43798</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5">
         <v>43805</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="B11" s="5">
+        <v>43805</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="B12" s="5">
+        <v>43812</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="1"/>
+    <row r="13" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="10"/>
+    </row>
+    <row r="29" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="10"/>
+    </row>
+    <row r="30" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="10"/>
+    </row>
+    <row r="31" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="10"/>
+    </row>
+    <row r="32" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="10"/>
+    </row>
+    <row r="33" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="10"/>
+    </row>
+    <row r="34" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="10"/>
+    </row>
+    <row r="35" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="10"/>
+    </row>
+    <row r="36" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="10"/>
+    </row>
+    <row r="37" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Fichiers personnels/Journal -des-modifs Jules DZIUBA.xlsx
+++ b/Documentation/Fichiers personnels/Journal -des-modifs Jules DZIUBA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matthew.flenet\Desktop\GitHub\PPO_G6_DODGE_CRUSADERS\Documentation\Fichiers personnels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitProject\PPO_G6_DODGE_CRUSADERS\Documentation\Fichiers personnels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F16EED3-D836-4D76-BAAE-79B5FC2ABA3F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D527E769-B0D1-4CF5-8887-C1949BB24D6C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{B1CE73E6-F9E0-41DA-82F4-F34D615BB390}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11835" xr2:uid="{B1CE73E6-F9E0-41DA-82F4-F34D615BB390}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>DUREE</t>
   </si>
@@ -60,25 +60,10 @@
     <t>3h</t>
   </si>
   <si>
+    <t>Avoir une interface fonctionelle</t>
+  </si>
+  <si>
     <t>2h</t>
-  </si>
-  <si>
-    <t>Création de la page de fin de jeu "game over"</t>
-  </si>
-  <si>
-    <t>Ajout et correction des arrières plans des différentes fenêtres</t>
-  </si>
-  <si>
-    <t>Refonte graphique du logiciel</t>
-  </si>
-  <si>
-    <t>Les fenêtres ne sont plus redimentionnables</t>
-  </si>
-  <si>
-    <t>1h</t>
-  </si>
-  <si>
-    <t>Le document de recette est crée et remplit</t>
   </si>
 </sst>
 </file>
@@ -153,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -167,26 +152,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -503,29 +468,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52521A71-5B34-4B84-86FF-C2E9B6CC8857}">
-  <dimension ref="A2:J37"/>
+  <dimension ref="A2:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="2" max="2" width="19.140625" customWidth="1"/>
     <col min="3" max="3" width="59.140625" customWidth="1"/>
     <col min="4" max="4" width="27.28515625" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -534,7 +498,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>5</v>
@@ -547,7 +511,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="5">
         <v>43756</v>
@@ -560,7 +524,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="5">
         <v>43777</v>
@@ -573,7 +537,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="5">
         <v>43784</v>
@@ -586,248 +550,221 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="5">
-        <v>43791</v>
+        <v>43805</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="E8" s="1"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="5">
-        <v>43798</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="5">
-        <v>43805</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="5">
-        <v>43805</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="5">
-        <v>43812</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="10"/>
-    </row>
-    <row r="21" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="10"/>
-    </row>
-    <row r="22" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="10"/>
-    </row>
-    <row r="23" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="10"/>
-    </row>
-    <row r="24" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="10"/>
-    </row>
-    <row r="25" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="10"/>
-    </row>
-    <row r="26" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="10"/>
-    </row>
-    <row r="28" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="10"/>
-    </row>
-    <row r="29" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="10"/>
-    </row>
-    <row r="30" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="10"/>
-    </row>
-    <row r="31" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="10"/>
-    </row>
-    <row r="32" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="10"/>
-    </row>
-    <row r="33" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="10"/>
-    </row>
-    <row r="34" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="10"/>
-    </row>
-    <row r="35" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="10"/>
-    </row>
-    <row r="36" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="10"/>
-    </row>
-    <row r="37" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="10"/>
+    <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
